--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="RunManager" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>uname</t>
   </si>
@@ -28,6 +29,48 @@
   </si>
   <si>
     <t>test1234</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>loginValidationTest1</t>
+  </si>
+  <si>
+    <t>selectPieTest</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>TestCaseDescription</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -51,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +102,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,28 +419,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -390,12 +488,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -410,4 +568,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>